--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F655C18-094D-477C-81D4-9D82AEAE7D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EA3100-B3E2-4326-A39B-620E437D82D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegion_View" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="71">
   <si>
     <t>S.No</t>
   </si>
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546274F2-5181-4A4E-AD1A-2405E6D1286C}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S6"/>
     </sheetView>
   </sheetViews>
@@ -1633,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E310E616-82EC-4CC4-9720-1C0AE01E87DA}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1800,14 +1800,30 @@
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -1844,14 +1860,30 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1859,7 +1891,7 @@
         <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T4" s="6"/>
     </row>
@@ -1888,14 +1920,30 @@
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,7 +1951,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T5" s="6"/>
     </row>
@@ -1932,14 +1980,30 @@
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1947,7 +2011,7 @@
         <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -1976,14 +2040,30 @@
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1991,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T7" s="6"/>
     </row>

--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EA3100-B3E2-4326-A39B-620E437D82D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4890B4-7729-4F57-80B9-0A1C992E177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegion_View" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="70">
   <si>
     <t>S.No</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Valid_NormalPassword</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Modules</t>
@@ -729,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F5320C-FCCA-46FE-B3EE-3234201A0A0A}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546274F2-5181-4A4E-AD1A-2405E6D1286C}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S6"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1633,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E310E616-82EC-4CC4-9720-1C0AE01E87DA}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2085,7 +2082,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2251,14 +2248,30 @@
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -2295,14 +2308,30 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2310,7 +2339,7 @@
         <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T4" s="6"/>
     </row>
@@ -2339,14 +2368,30 @@
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,7 +2399,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T5" s="6"/>
     </row>
@@ -2383,14 +2428,30 @@
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2398,7 +2459,7 @@
         <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -2427,14 +2488,30 @@
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2442,7 +2519,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T7" s="6"/>
     </row>
@@ -2469,138 +2546,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4890B4-7729-4F57-80B9-0A1C992E177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE146A10-25C3-4F58-9113-FCF4F7D2D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegion_View" sheetId="7" r:id="rId1"/>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F5320C-FCCA-46FE-B3EE-3234201A0A0A}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -1179,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546274F2-5181-4A4E-AD1A-2405E6D1286C}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="S3" sqref="S3:S7"/>
     </sheetView>
   </sheetViews>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FCFD6D-A0BF-4B39-BA3B-974FC5434548}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE146A10-25C3-4F58-9113-FCF4F7D2D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021D7F4-EAC9-40F5-A5BC-08E4C651C44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021D7F4-EAC9-40F5-A5BC-08E4C651C44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE39FA-5490-4811-858B-547D0C19ECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE39FA-5490-4811-858B-547D0C19ECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A69F09-2A83-49FC-81FE-8C0C6699FAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegion_View" sheetId="7" r:id="rId1"/>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,6 +354,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546274F2-5181-4A4E-AD1A-2405E6D1286C}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,6 +1627,60 @@
         <v>3</v>
       </c>
       <c r="T7" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2534,7 +2595,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/USER_REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A69F09-2A83-49FC-81FE-8C0C6699FAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8ADDD5-9313-42AB-8339-3122F0E94433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegion_View" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="71">
   <si>
     <t>S.No</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>RestAssured-API</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F5320C-FCCA-46FE-B3EE-3234201A0A0A}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -992,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T4" s="6"/>
     </row>
@@ -1052,7 +1055,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T5" s="6"/>
     </row>
@@ -1112,7 +1115,7 @@
         <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -1172,7 +1175,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T7" s="6"/>
     </row>
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546274F2-5181-4A4E-AD1A-2405E6D1286C}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:R20"/>
+    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,7 +1387,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -1444,7 +1447,7 @@
         <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T4" s="6"/>
     </row>
@@ -1504,7 +1507,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T5" s="6"/>
     </row>
@@ -1564,7 +1567,7 @@
         <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -1624,7 +1627,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T7" s="6"/>
     </row>
@@ -1691,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E310E616-82EC-4CC4-9720-1C0AE01E87DA}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -1949,7 +1952,7 @@
         <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T4" s="6"/>
     </row>
@@ -2009,7 +2012,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T5" s="6"/>
     </row>
@@ -2069,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -2129,7 +2132,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T7" s="6"/>
     </row>
@@ -2143,7 +2146,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="S4" sqref="S4:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2340,7 +2343,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -2400,7 +2403,7 @@
         <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T4" s="6"/>
     </row>
@@ -2460,7 +2463,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T5" s="6"/>
     </row>
@@ -2520,7 +2523,7 @@
         <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -2580,7 +2583,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="T7" s="6"/>
     </row>
